--- a/調べた情報一式.xlsx
+++ b/調べた情報一式.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/1564602_tmc_twfr_toyota_co_jp/Documents/work/E0_ト技会/★ELMOモータードライバ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/1564602_tmc_twfr_toyota_co_jp/Documents/ドキュメント/GitHub/EtherCAT_MotorCtrl/EtherCAT_MotorCtrl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="8_{BD6542F7-1193-433B-AC4E-609A33BAF236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37020243-9C42-474D-8BC5-AE0B0CDCA821}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="8_{BD6542F7-1193-433B-AC4E-609A33BAF236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A9E027F-6CBD-4302-AFC3-2B622598FDE3}"/>
   <bookViews>
     <workbookView xWindow="3645" yWindow="-11640" windowWidth="20730" windowHeight="11040" xr2:uid="{4DBDAC85-0C67-4F72-8171-AF31C708EFD8}"/>
   </bookViews>
@@ -3809,6 +3809,1138 @@
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6139815</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C79065-ED59-122A-83A3-FD6AC12E3966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7473315" y="4305300"/>
+          <a:ext cx="6581775" cy="21431250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="72000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#include &lt;stdio.h&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#include &lt;stdlib.h&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#include &lt;ethercat.h&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#define EC_TIMEOUTMON 500</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>char IOmap[4096];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int expectedWKC;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>volatile int wkc;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>boolean needlf = FALSE;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>boolean inOP = FALSE;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モータードライバの設定値</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#define TORQUE_INDEX 0x6071</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#define TORQUE_SUBINDEX 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#define MODE_OF_OPERATION_INDEX 0x6060</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#define CONTROL_WORD_INDEX 0x6040</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モータードライバの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PDO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>インデックス</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#define RPDO_INDEX 0x1600 // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トルク指令値</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#define TPDO_INDEX 0x1A00 // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステータスなどのフィードバック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>void simpletest(char *ifname)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    if (ec_init(ifname)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        printf("EtherCAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>初期化に成功</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: %s\n", ifname);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        if (ec_config_init(FALSE) &gt; 0) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            printf("%d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スレーブが見つかりました</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>\n", ec_slavecount);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            ec_config_map(&amp;IOmap);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            ec_configdc();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            printf("PDO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マッピングを行います</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>\n");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トルク指令値を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RPDO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にマッピング</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ec_SDOwrite(1, RPDO_INDEX, 0, TRUE, sizeof(int16_t), &amp;TORQUE_INDEX, EC_TIMEOUTRXM);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>制御ワードの初期設定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ec_slave[1].outputs[CONTROL_WORD_INDEX] = 0x0000;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            ec_slave[1].outputs[CONTROL_WORD_INDEX] |= (1 &lt;&lt; ERROR_RESET_BIT);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            ec_slave[1].outputs[MODE_OF_OPERATION_INDEX] = (int8_t)0x04;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            ec_slave[1].outputs[CONTROL_WORD_INDEX] |= (1 &lt;&lt; SWITCH_ON_BIT);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            // PDO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マッピング</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>expectedWKC = (ec_group[0].outputsWKC * 2) + ec_group[0].inputsWKC;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>要求された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WKC: %d\n", expectedWKC);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            ec_slave[0].state = EC_STATE_OPERATIONAL;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            ec_send_processdata();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            ec_receive_processdata(EC_TIMEOUTRET);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            while (1) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                int16_t torque_command = 1000; // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トルク指令値を設定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ec_slave[1].outputs[TORQUE_INDEX] = torque_command;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                ec_send_processdata();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                wkc = ec_receive_processdata(EC_TIMEOUTRET);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                if (wkc &lt; expectedWKC) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                    printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロセスデータ交換エラー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>\n");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                osal_usleep(1000);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        else {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スレーブが見つかりません</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>\n");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    else {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        printf("EtherCAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>初期化に失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: %s\n", ifname);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int main(int argc, char *argv[])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    if (argc &gt; 1) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        simpletest(argv[1]);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    } else {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>使用法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: %s [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ネットワークインターフェース</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>]\n", argv[0]);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    return 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4116,16 +5248,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF320B72-E784-4BD9-B6FA-6C11632C55CE}">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="133.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="133.69921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="93.75">
+    <row r="2" spans="2:3" ht="90">
       <c r="B2" t="s">
         <v>122</v>
       </c>
@@ -4149,10 +5281,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="49.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.375" customWidth="1"/>
+    <col min="2" max="2" width="49.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -4177,13 +5309,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.8984375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="22.5">
+    <row r="2" spans="2:4" ht="22.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4220,12 +5352,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="22.5">
+    <row r="8" spans="2:4" ht="22.2">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.5">
+    <row r="9" spans="2:4" ht="19.8">
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4270,7 +5402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="19.5">
+    <row r="16" spans="2:4" ht="19.8">
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
@@ -4739,7 +5871,7 @@
         <v xml:space="preserve">- EoE : </v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="37.5">
+    <row r="57" spans="3:6">
       <c r="C57" s="5" t="s">
         <v>54</v>
       </c>
@@ -4967,7 +6099,7 @@
         <v>- CatNo : 30</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="37.5">
+    <row r="77" spans="3:6" ht="36">
       <c r="C77" s="5" t="s">
         <v>79</v>
       </c>
@@ -5039,9 +6171,9 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="79.25" customWidth="1"/>
+    <col min="2" max="2" width="79.19921875" customWidth="1"/>
     <col min="4" max="4" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5270,7 +6402,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="43.5">
+    <row r="44" spans="2:4" ht="43.8">
       <c r="B44" t="s">
         <v>118</v>
       </c>
@@ -5281,7 +6413,7 @@
     <row r="45" spans="2:4">
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="2:4" ht="42.75">
+    <row r="46" spans="2:4" ht="43.2">
       <c r="B46" t="s">
         <v>119</v>
       </c>
@@ -5292,7 +6424,7 @@
     <row r="47" spans="2:4">
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="2:4" ht="28.5">
+    <row r="48" spans="2:4" ht="28.8">
       <c r="B48" t="s">
         <v>120</v>
       </c>
@@ -5303,7 +6435,7 @@
     <row r="49" spans="2:4">
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="2:4" ht="42.75">
+    <row r="50" spans="2:4" ht="43.2">
       <c r="B50" t="s">
         <v>121</v>
       </c>
@@ -5325,13 +6457,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="114" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="187.5">
+    <row r="2" spans="2:3" ht="180">
       <c r="B2" s="2" t="s">
         <v>129</v>
       </c>
@@ -5339,7 +6471,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="37.5">
+    <row r="3" spans="2:3" ht="36">
       <c r="B3" t="s">
         <v>131</v>
       </c>
@@ -5347,7 +6479,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="56.25">
+    <row r="4" spans="2:3" ht="54">
       <c r="B4" t="s">
         <v>133</v>
       </c>
@@ -5355,7 +6487,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="37.5">
+    <row r="5" spans="2:3" ht="36">
       <c r="B5" t="s">
         <v>144</v>
       </c>
@@ -5363,7 +6495,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="93.75">
+    <row r="6" spans="2:3" ht="90">
       <c r="B6" t="s">
         <v>156</v>
       </c>
@@ -5385,13 +6517,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.75" customWidth="1"/>
+    <col min="2" max="2" width="33.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="56.25">
+    <row r="2" spans="2:3" ht="54">
       <c r="B2" t="s">
         <v>125</v>
       </c>
@@ -5399,7 +6531,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="56.25">
+    <row r="3" spans="2:3" ht="54">
       <c r="B3" t="s">
         <v>138</v>
       </c>
@@ -5407,7 +6539,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="75">
+    <row r="4" spans="2:3" ht="72">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -5415,7 +6547,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="56.25">
+    <row r="5" spans="2:3" ht="54">
       <c r="B5" s="2" t="s">
         <v>141</v>
       </c>
@@ -5423,7 +6555,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="150">
+    <row r="6" spans="2:3" ht="144">
       <c r="B6" t="s">
         <v>146</v>
       </c>
@@ -5431,7 +6563,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="150">
+    <row r="7" spans="2:3" ht="126">
       <c r="B7" t="s">
         <v>147</v>
       </c>
@@ -5439,7 +6571,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="131.25">
+    <row r="8" spans="2:3" ht="126">
       <c r="B8" t="s">
         <v>148</v>
       </c>
@@ -5447,7 +6579,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="131.25">
+    <row r="9" spans="2:3" ht="126">
       <c r="B9" t="s">
         <v>149</v>
       </c>
@@ -5469,13 +6601,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="37.5">
+    <row r="2" spans="2:3" ht="36">
       <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
@@ -5483,7 +6615,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="187.5">
+    <row r="3" spans="2:3" ht="180">
       <c r="B3" s="2" t="s">
         <v>136</v>
       </c>
@@ -5491,7 +6623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="206.25">
+    <row r="4" spans="2:3" ht="198">
       <c r="B4" t="s">
         <v>142</v>
       </c>
@@ -5502,5 +6634,6 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/調べた情報一式.xlsx
+++ b/調べた情報一式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/1564602_tmc_twfr_toyota_co_jp/Documents/ドキュメント/GitHub/EtherCAT_MotorCtrl/EtherCAT_MotorCtrl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{BD6542F7-1193-433B-AC4E-609A33BAF236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A9E027F-6CBD-4302-AFC3-2B622598FDE3}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{BD6542F7-1193-433B-AC4E-609A33BAF236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0CBB072-D0AE-4139-8A6C-5C69785356F6}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="-11640" windowWidth="20730" windowHeight="11040" xr2:uid="{4DBDAC85-0C67-4F72-8171-AF31C708EFD8}"/>
+    <workbookView xWindow="-2850" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4DBDAC85-0C67-4F72-8171-AF31C708EFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラムの説明" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="159">
   <si>
     <t>Vendor情報</t>
   </si>
@@ -897,12 +897,16 @@
 WKCは送信されるPDO（プロセスデータオブジェクト）ごとに、どれだけのスレーブがそのデータを受信・処理するかに基づいて計算されます。例えば、あるPDOが2つのスレーブによって処理される場合、そのPDOの期待されるWKCは2です。</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>https://www.n-s-c.co.jp/Ethernet-TSN/network/industrial-ethernet/1120/#:~:text=1%E3%81%A4%E3%81%AF%E3%80%81%E3%82%B9%E3%83%AC%E3%83%BC%E3%83%96%E3%81%AB,(Service%20Data%20Object)%E3%81%A0%E3%80%82</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +989,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1024,12 +1037,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,8 +1097,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5248,16 +5268,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF320B72-E784-4BD9-B6FA-6C11632C55CE}">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="133.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="133.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="90">
+    <row r="2" spans="2:3" ht="93.75">
       <c r="B2" t="s">
         <v>122</v>
       </c>
@@ -5281,10 +5301,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="49.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1"/>
+    <col min="2" max="2" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -5309,13 +5329,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.8984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="22.2">
+    <row r="2" spans="2:4" ht="22.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5352,12 +5372,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="22.2">
+    <row r="8" spans="2:4" ht="22.5">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.8">
+    <row r="9" spans="2:4" ht="19.5">
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
@@ -5402,7 +5422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="19.8">
+    <row r="16" spans="2:4" ht="19.5">
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
@@ -5871,7 +5891,7 @@
         <v xml:space="preserve">- EoE : </v>
       </c>
     </row>
-    <row r="57" spans="3:6">
+    <row r="57" spans="3:6" ht="37.5">
       <c r="C57" s="5" t="s">
         <v>54</v>
       </c>
@@ -6099,7 +6119,7 @@
         <v>- CatNo : 30</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="36">
+    <row r="77" spans="3:6" ht="37.5">
       <c r="C77" s="5" t="s">
         <v>79</v>
       </c>
@@ -6165,15 +6185,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6BB0FB-1275-4730-BD34-CE6244704E27}">
-  <dimension ref="B2:D50"/>
+  <dimension ref="B2:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="79.19921875" customWidth="1"/>
+    <col min="2" max="2" width="79.25" customWidth="1"/>
     <col min="4" max="4" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6402,7 +6422,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="43.8">
+    <row r="44" spans="2:4" ht="43.5">
       <c r="B44" t="s">
         <v>118</v>
       </c>
@@ -6413,7 +6433,7 @@
     <row r="45" spans="2:4">
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="2:4" ht="43.2">
+    <row r="46" spans="2:4" ht="42.75">
       <c r="B46" t="s">
         <v>119</v>
       </c>
@@ -6424,7 +6444,7 @@
     <row r="47" spans="2:4">
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="2:4" ht="28.8">
+    <row r="48" spans="2:4" ht="28.5">
       <c r="B48" t="s">
         <v>120</v>
       </c>
@@ -6435,7 +6455,7 @@
     <row r="49" spans="2:4">
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="2:4" ht="43.2">
+    <row r="50" spans="2:4" ht="42.75">
       <c r="B50" t="s">
         <v>121</v>
       </c>
@@ -6443,8 +6463,16 @@
         <v>86</v>
       </c>
     </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="B55" r:id="rId1" location=":~:text=1%E3%81%A4%E3%81%AF%E3%80%81%E3%82%B9%E3%83%AC%E3%83%BC%E3%83%96%E3%81%AB,(Service%20Data%20Object)%E3%81%A0%E3%80%82" xr:uid="{4E1363DE-07F3-4550-98E7-CB1BCCD86641}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6457,13 +6485,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="114" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="180">
+    <row r="2" spans="2:3" ht="187.5">
       <c r="B2" s="2" t="s">
         <v>129</v>
       </c>
@@ -6471,7 +6499,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="36">
+    <row r="3" spans="2:3" ht="37.5">
       <c r="B3" t="s">
         <v>131</v>
       </c>
@@ -6479,7 +6507,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="54">
+    <row r="4" spans="2:3" ht="56.25">
       <c r="B4" t="s">
         <v>133</v>
       </c>
@@ -6487,7 +6515,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="36">
+    <row r="5" spans="2:3" ht="37.5">
       <c r="B5" t="s">
         <v>144</v>
       </c>
@@ -6495,7 +6523,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="90">
+    <row r="6" spans="2:3" ht="93.75">
       <c r="B6" t="s">
         <v>156</v>
       </c>
@@ -6517,13 +6545,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="33.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.69921875" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="54">
+    <row r="2" spans="2:3" ht="56.25">
       <c r="B2" t="s">
         <v>125</v>
       </c>
@@ -6531,7 +6559,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54">
+    <row r="3" spans="2:3" ht="56.25">
       <c r="B3" t="s">
         <v>138</v>
       </c>
@@ -6539,7 +6567,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="72">
+    <row r="4" spans="2:3" ht="75">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -6547,7 +6575,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="54">
+    <row r="5" spans="2:3" ht="56.25">
       <c r="B5" s="2" t="s">
         <v>141</v>
       </c>
@@ -6555,7 +6583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="144">
+    <row r="6" spans="2:3" ht="150">
       <c r="B6" t="s">
         <v>146</v>
       </c>
@@ -6563,7 +6591,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="126">
+    <row r="7" spans="2:3" ht="150">
       <c r="B7" t="s">
         <v>147</v>
       </c>
@@ -6571,7 +6599,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="126">
+    <row r="8" spans="2:3" ht="131.25">
       <c r="B8" t="s">
         <v>148</v>
       </c>
@@ -6579,7 +6607,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="126">
+    <row r="9" spans="2:3" ht="131.25">
       <c r="B9" t="s">
         <v>149</v>
       </c>
@@ -6601,13 +6629,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="36">
+    <row r="2" spans="2:3" ht="37.5">
       <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
@@ -6615,7 +6643,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="180">
+    <row r="3" spans="2:3" ht="187.5">
       <c r="B3" s="2" t="s">
         <v>136</v>
       </c>
@@ -6623,7 +6651,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="198">
+    <row r="4" spans="2:3" ht="206.25">
       <c r="B4" t="s">
         <v>142</v>
       </c>

--- a/調べた情報一式.xlsx
+++ b/調べた情報一式.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/1564602_tmc_twfr_toyota_co_jp/Documents/ドキュメント/GitHub/EtherCAT_MotorCtrl/EtherCAT_MotorCtrl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1564602\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{BD6542F7-1193-433B-AC4E-609A33BAF236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0CBB072-D0AE-4139-8A6C-5C69785356F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C797980-1AF6-4F8C-A56B-AFBD2DED7EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2850" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4DBDAC85-0C67-4F72-8171-AF31C708EFD8}"/>
+    <workbookView xWindow="3615" yWindow="-13920" windowWidth="21600" windowHeight="11295" xr2:uid="{4DBDAC85-0C67-4F72-8171-AF31C708EFD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="プログラムの説明" sheetId="3" r:id="rId1"/>
-    <sheet name="Linux関連" sheetId="8" r:id="rId2"/>
-    <sheet name="XMLで記述されたESIの内容" sheetId="1" r:id="rId3"/>
-    <sheet name="EtherCAT制御の流れ" sheetId="4" r:id="rId4"/>
-    <sheet name="EtherCAT関連用語" sheetId="5" r:id="rId5"/>
-    <sheet name="モータードライバ用語" sheetId="6" r:id="rId6"/>
-    <sheet name="ELMO設定関連" sheetId="7" r:id="rId7"/>
+    <sheet name="20240606" sheetId="9" r:id="rId1"/>
+    <sheet name="プログラムの説明" sheetId="3" r:id="rId2"/>
+    <sheet name="Linux関連" sheetId="8" r:id="rId3"/>
+    <sheet name="XMLで記述されたESIの内容" sheetId="1" r:id="rId4"/>
+    <sheet name="EtherCAT制御の流れ" sheetId="4" r:id="rId5"/>
+    <sheet name="EtherCAT関連用語" sheetId="5" r:id="rId6"/>
+    <sheet name="モータードライバ用語" sheetId="6" r:id="rId7"/>
+    <sheet name="ELMO設定関連" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="210">
   <si>
     <t>Vendor情報</t>
   </si>
@@ -901,12 +902,735 @@
     <t>https://www.n-s-c.co.jp/Ethernet-TSN/network/industrial-ethernet/1120/#:~:text=1%E3%81%A4%E3%81%AF%E3%80%81%E3%82%B9%E3%83%AC%E3%83%BC%E3%83%96%E3%81%AB,(Service%20Data%20Object)%E3%81%A0%E3%80%82</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>1. スレーブデバイスの設定・仕様書</t>
+  </si>
+  <si>
+    <t>スレーブデバイスのマニュアルや仕様書には、PDO（プロセスデータオブジェクト）として送受信されるデータのサイズが記載されています。これにより、デバイスがどれだけのデータを送受信するかを確認できます。</t>
+  </si>
+  <si>
+    <t>2. EtherCATの設定</t>
+  </si>
+  <si>
+    <r>
+      <t>IOmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の構成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: スレーブが1つだけ接続されている場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>IOmap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> はスレーブの入出力データを格納する単一の連続したデータブロックとなります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>出力データ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>IOmap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の先頭に配置され、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ec_slave[0].outputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を通じてアクセスできます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>入力データ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 出力データの後に続き、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ec_slave[0].inputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を通じてアクセスできます。</t>
+    </r>
+  </si>
+  <si>
+    <t>EtherCATマスターライブラリ（ここではSOEM）を使用して、スレーブデバイスをスキャンおよび設定すると、各スレーブの入出力データのサイズが自動的に読み取られます。この情報は、スレーブデバイスのオブジェクトディクショナリに基づいて取得されます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Profiled Torque Modeに切り替えるには、制御ワード（オブジェクト 0x6040）の特定のビットを設定する必要があります。以下はそのビットの設定内容です​​：</t>
+  </si>
+  <si>
+    <t>ビット0: スイッチオン (Switch on)</t>
+  </si>
+  <si>
+    <t>ビット1: 電圧有効 (Enable voltage)</t>
+  </si>
+  <si>
+    <t>ビット2: クイックストップ (Quick stop)</t>
+  </si>
+  <si>
+    <t>ビット3: 動作有効 (Enable operation)</t>
+  </si>
+  <si>
+    <t>モードをProfiled Torque Modeに設定</t>
+  </si>
+  <si>
+    <t>操作モード (オブジェクト 0x6060) をProfiled Torque Mode (値: 4) に設定します。</t>
+  </si>
+  <si>
+    <t>0x6071に指令値を設定する方法</t>
+  </si>
+  <si>
+    <t>1. ターゲットトルクの設定</t>
+  </si>
+  <si>
+    <t>Target Torque (オブジェクト 0x6071) に値を設定します。値はモーターの定格トルクに対する割合で設定します​​。</t>
+  </si>
+  <si>
+    <r>
+      <t>PDO（Process Data Object）のマッピングの際に、特定のSDO（Service Data Object）のアドレスを指定する必要があります。そのために、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>pdo_entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>という32ビットの値を使います。この値の各ビットは、PDOマッピングの詳細を示しています。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pdo_entry</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の構造</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uint32_t pdo_entry = 0x60710010;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> この値は4バイト（32ビット）で構成されており、次のように分解されます：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. 上位16ビット（アドレス部分）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x6071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は、ターゲットトルク（Target Torque）のオブジェクトディクショナリのインデックスです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. 下位16ビット（サイズ部分）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x0010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は、16ビット（2バイト）を表します。これは、ターゲットトルクのデータサイズを指定します。</t>
+    </r>
+  </si>
+  <si>
+    <t>具体的に分解すると以下の通りです：</t>
+  </si>
+  <si>
+    <r>
+      <t>0x6071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（上位2バイト）: オブジェクトディクショナリのインデックス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x0010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（下位2バイト）: データサイズ（ビット単位）。16ビットなので、0x10になります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ec_SDOwrite</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の引数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ec_SDOwrite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の引数に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x1600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使用しているのは、0x1600がRPDO1のアドレスを示しているからです。以下のように構成されています：</t>
+    </r>
+  </si>
+  <si>
+    <t>ec_SDOwrite(slave, 0x1600, 0x01, FALSE, sizeof(pdo_entry), &amp;pdo_entry, EC_TIMEOUTRXM);</t>
+  </si>
+  <si>
+    <r>
+      <t>slave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: スレーブインデックス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x1600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: PDOマッピングのアドレス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: サブインデックス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 完了を待つかどうか（FALSEは待たない）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sizeof(pdo_entry)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: データサイズ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&amp;pdo_entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: マッピングするデータのポインタ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EC_TIMEOUTRXM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: タイムアウト。</t>
+    </r>
+  </si>
+  <si>
+    <t>次に、エントリ数を設定します：</t>
+  </si>
+  <si>
+    <t>ec_SDOwrite(slave, 0x1600, 0x00, FALSE, sizeof(number_of_entries), &amp;number_of_entries, EC_TIMEOUTRXM);</t>
+  </si>
+  <si>
+    <r>
+      <t>0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: サブインデックス。ここではエントリ数を設定します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>number_of_entries = 1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は、1つのPDOエントリがマッピングされていることを示します。</t>
+    </r>
+  </si>
+  <si>
+    <t>プログラム全体の流れ</t>
+  </si>
+  <si>
+    <r>
+      <t>1. PDOエントリを設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>ターゲットトルク（0x6071）を16ビット（0x0010）でRPDO1（0x1600）のサブインデックス0x01にマッピング。</t>
+  </si>
+  <si>
+    <r>
+      <t>2. エントリ数を設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>サブインデックス0x00に1（number_of_entries）を設定。</t>
+  </si>
+  <si>
+    <t>まとめ</t>
+  </si>
+  <si>
+    <r>
+      <t>pdo_entry = 0x60710010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の上位16ビットはターゲットトルクのアドレス、下位16ビットはデータサイズ（16ビット）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ec_SDOwrite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の2つ目の引数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x1600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はRPDO1のアドレス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ec_SDOwrite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のサブインデックス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にPDOエントリを設定し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にエントリ数を設定。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>これにより、PDOがターゲットトルクを正しくマッピングし、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ec_slave[1].outputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使ってリアルタイムにトルク制御ができるようになります。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,6 +1722,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1045,7 +1782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,6 +1837,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1119,6 +1889,999 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6229350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4A7C5B-7081-969D-A1DD-C855BBE599EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="3267075"/>
+          <a:ext cx="6153150" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>void check_slave_data_sizes() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>スレーブデバイスの出力データサイズ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Obytes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）および入力データサイズ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Ibytes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）を表示 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>int oloop = ec_slave[0].Obytes;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>int iloop = ec_slave[0].Ibytes;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>出力データのバイト数 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(Obytes): %d\n", oloop);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>入力データのバイト数 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(Ibytes): %d\n", iloop);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6229350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9403EBF4-907E-9F6B-7931-902C8881A852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="8105775"/>
+          <a:ext cx="6153150" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>制御ワードを設定する例</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>uint16_t controlword = 0x000F; // 0b0000000000001111</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ec_SDOwrite(slave, 0x6040, 0x00, FALSE, sizeof(controlword), &amp;controlword, EC_TIMEOUTRXM);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6229350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6A0810-97FF-FA7A-495D-C9116E96EE0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="10334625"/>
+          <a:ext cx="6153150" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>int8_t operation_mode = 4; // Profiled Torque Mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ec_SDOwrite(slave, 0x6060, 0x00, FALSE, sizeof(operation_mode), &amp;operation_mode, EC_TIMEOUTRXM);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BD35DE-CA8F-BE9A-4E32-5A8FEC2D2890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="6276975"/>
+          <a:ext cx="7334250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CD4346-CE96-4EBD-DD2A-256EC5D38FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="12572999"/>
+          <a:ext cx="7153275" cy="5667375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>#include &lt;ecrt.h&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>void set_profiled_torque_mode(uint16 slave) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    uint16_t controlword = 0x0006; // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>スイッチオン前の初期設定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ec_SDOwrite(slave, 0x6040, 0x00, FALSE, sizeof(controlword), &amp;controlword, EC_TIMEOUTRXM);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>操作モードを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Profiled Torque Mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>に設定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>int8_t operation_mode = 4;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    ec_SDOwrite(slave, 0x6060, 0x00, FALSE, sizeof(operation_mode), &amp;operation_mode, EC_TIMEOUTRXM);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>制御ワードを設定して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Profiled Torque Mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を有効にする</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>controlword = 0x000F;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    ec_SDOwrite(slave, 0x6040, 0x00, FALSE, sizeof(controlword), &amp;controlword, EC_TIMEOUTRXM);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ターゲットトルクを設定する</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>int16_t target_torque = 625; // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>: 62.5% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のモーター定格トルク</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ec_SDOwrite(slave, 0x6071, 0x00, FALSE, sizeof(target_torque), &amp;target_torque, EC_TIMEOUTRXM);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>int main() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>初期化コード（例：スレーブの初期化など）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>// Profiled Torque Mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の設定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>set_profiled_torque_mode(1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>その後の処理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>return 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E01CDC-B17F-F3F1-B829-0C1F66341502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934324" y="14506574"/>
+          <a:ext cx="7010401" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>void configure_pdo_mapping(uint16 slave) { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ここで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>PDO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>マッピングを設定するコードを記述 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>通常、スレーブは初期化時に自動的に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>PDO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>マッピングを行う </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>例として、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>0x1600 (RPDO1) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>0x6071 (Target Torque) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>をマッピング </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>uint32_t pdo_entry = 0x60710010; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>// 0x6071 (16 bit) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ec_SDOwrite(slave, 0x1600, 0x01, FALSE, sizeof(pdo_entry), &amp;pdo_entry, EC_TIMEOUTRXM); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>uint8_t number_of_entries = 1; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ec_SDOwrite(slave, 0x1600, 0x00, FALSE, sizeof(number_of_entries), &amp;number_of_entries, EC_TIMEOUTRXM); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18916CBA-0BC1-BC55-41D6-C399917744A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934324" y="16925925"/>
+          <a:ext cx="7010401" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>// RPDO (0x1600) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>へのデータ送信 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>int16 target_torque = 625;  // 62.5% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のモーター定格トルク </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>((int16*)ec_slave[1].outputs)[0] = target_torque;  // 0x6071</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のアドレスにデータを設定 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6057900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左中かっこ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8B1EED-D41A-BEF0-27E8-B8900E9E8AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="14573249"/>
+          <a:ext cx="1038225" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 34211"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5265,6 +7028,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C7DEBC-2533-44CA-B693-B34EA31BE481}">
+  <dimension ref="B2:B127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="82" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="22.5">
+      <c r="B2" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="56.25">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="22.5">
+      <c r="B6" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="56.25">
+      <c r="B8" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="22.5">
+      <c r="B44" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="56.25">
+      <c r="B74" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="22.5">
+      <c r="B76" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="37.5">
+      <c r="B78" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="26"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="37.5">
+      <c r="B81" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="37.5">
+      <c r="B83" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="26"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="22.5">
+      <c r="B90" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="37.5">
+      <c r="B92" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="26"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="26"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="22.5">
+      <c r="B109" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="26"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="26"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="26"/>
+    </row>
+    <row r="114" spans="2:2" ht="37.5">
+      <c r="B114" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="26"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="26"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="26"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="22.5">
+      <c r="B121" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="26"/>
+    </row>
+    <row r="123" spans="2:2" ht="37.5">
+      <c r="B123" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="37.5">
+      <c r="B127" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF320B72-E784-4BD9-B6FA-6C11632C55CE}">
   <dimension ref="B2:C2"/>
   <sheetViews>
@@ -5293,7 +7371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222A0985-0609-4093-A2DE-8ED93F888291}">
   <dimension ref="B2:C2"/>
   <sheetViews>
@@ -5321,7 +7399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00474366-12FE-409C-9174-7249A075F088}">
   <dimension ref="B2:F81"/>
   <sheetViews>
@@ -6183,11 +8261,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6BB0FB-1275-4730-BD34-CE6244704E27}">
   <dimension ref="B2:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -6477,7 +8555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3098AE-12DD-4AD9-ADFA-1C75AA4467C1}">
   <dimension ref="B2:C6"/>
   <sheetViews>
@@ -6537,7 +8615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E4ED5A-5845-47B5-A66F-8C14626F522B}">
   <dimension ref="B2:C9"/>
   <sheetViews>
@@ -6621,7 +8699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ECFDB5-B23E-48E8-916E-A893B958777A}">
   <dimension ref="B2:C4"/>
   <sheetViews>

--- a/調べた情報一式.xlsx
+++ b/調べた情報一式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/1564602_tmc_twfr_toyota_co_jp/Documents/ドキュメント/GitHub/EtherCAT_MotorCtrl/EtherCAT_MotorCtrl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="414" documentId="8_{BD6542F7-1193-433B-AC4E-609A33BAF236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5979821F-3542-4C74-8BE2-86E38AE90D68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300BEB7F-F247-4F6B-8495-B2C541352329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4DBDAC85-0C67-4F72-8171-AF31C708EFD8}"/>
+    <workbookView xWindow="-2850" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4DBDAC85-0C67-4F72-8171-AF31C708EFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="SOEMサンプルコード_改" sheetId="13" r:id="rId1"/>
@@ -6406,8 +6406,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>134473</xdr:rowOff>
     </xdr:from>
@@ -6430,8 +6430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096001" y="14578855"/>
-          <a:ext cx="2958351" cy="3417794"/>
+          <a:off x="6286499" y="14578855"/>
+          <a:ext cx="2767853" cy="3417794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10890,7 +10890,7 @@
   <dimension ref="A2:B272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B272" sqref="B2:B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13187,7 +13187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD11184-DCD7-45EC-B16F-E108D13D9244}">
   <dimension ref="A2:B272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -15296,8 +15296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0873CCB-75CC-4523-A819-DEDC858B1EFC}">
   <dimension ref="B2:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -15344,8 +15344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2DD4C-9E2E-4400-854C-D0DC032ADFAB}">
   <dimension ref="A2:B132"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/調べた情報一式.xlsx
+++ b/調べた情報一式.xlsx
@@ -1,51 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1564602\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB706D-55B4-4B0A-91FE-5BCE1153AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C271EEE6-1CC5-47E0-BC15-0C91E96E269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="420" windowWidth="16932" windowHeight="11916" xr2:uid="{4DBDAC85-0C67-4F72-8171-AF31C708EFD8}"/>
+    <workbookView xWindow="-2850" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4DBDAC85-0C67-4F72-8171-AF31C708EFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="statusword各ビット説明" sheetId="14" r:id="rId1"/>
-    <sheet name="ElmoドライバのPDO設定" sheetId="11" r:id="rId2"/>
-    <sheet name="ec_slave構造体の説明" sheetId="10" r:id="rId3"/>
-    <sheet name="プログラムの説明" sheetId="3" r:id="rId4"/>
-    <sheet name="Linux関連" sheetId="8" r:id="rId5"/>
-    <sheet name="XMLで記述されたESIの内容（抜粋）" sheetId="1" r:id="rId6"/>
-    <sheet name="EtherCAT制御の流れ" sheetId="4" r:id="rId7"/>
-    <sheet name="EtherCAT関連用語" sheetId="5" r:id="rId8"/>
-    <sheet name="モータードライバ用語" sheetId="6" r:id="rId9"/>
-    <sheet name="ELMO設定関連" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="ElmoドライバのPDO設定" sheetId="11" r:id="rId3"/>
+    <sheet name="ec_slave構造体の説明" sheetId="10" r:id="rId4"/>
+    <sheet name="プログラムの説明" sheetId="3" r:id="rId5"/>
+    <sheet name="Linux関連" sheetId="8" r:id="rId6"/>
+    <sheet name="XMLで記述されたESIの内容（抜粋）" sheetId="1" r:id="rId7"/>
+    <sheet name="EtherCAT制御の流れ" sheetId="4" r:id="rId8"/>
+    <sheet name="EtherCAT関連用語" sheetId="5" r:id="rId9"/>
+    <sheet name="モータードライバ用語" sheetId="6" r:id="rId10"/>
+    <sheet name="ELMO設定関連" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="562">
   <si>
     <t>Vendor情報</t>
   </si>
@@ -1914,6 +1904,426 @@
       </rPr>
       <t xml:space="preserve"> (Ready to switch on):</t>
     </r>
+  </si>
+  <si>
+    <t>ターゲット位置や制御ワードのメモリ位置が `ec_slave[SLAVE_NO].outputs` のどのインデックスにマッピングされているかを知るためには、PDOマッピング情報を元に計算する必要があります。以下の手順で確認できます。</t>
+  </si>
+  <si>
+    <t>### 1. PDOマッピング情報の確認</t>
+  </si>
+  <si>
+    <t>スレーブのPDOマッピング情報は、通常、EDSファイルやXMLファイルで提供されます。あなたが示したXMLファイルの例から、RxPDO (Outputs) のマッピングは次の通りです：</t>
+  </si>
+  <si>
+    <t>```xml</t>
+  </si>
+  <si>
+    <t>&lt;RxPdo Fixed="1" Sm="2"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Index&gt;#x1600&lt;/Index&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Name&gt;Outputs&lt;/Name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Entry&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Index&gt;#x607A&lt;/Index&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;SubIndex&gt;0&lt;/SubIndex&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;BitLen&gt;32&lt;/BitLen&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Name&gt;Target Position&lt;/Name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;DataType&gt;DINT&lt;/DataType&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/Entry&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Index&gt;#x60FE&lt;/Index&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;SubIndex&gt;1&lt;/SubIndex&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Name&gt;Digital Outputs&lt;/Name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Index&gt;#x6040&lt;/Index&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;BitLen&gt;16&lt;/BitLen&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Name&gt;Control word&lt;/Name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;DataType&gt;UINT&lt;/DataType&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/RxPdo&gt;</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
+    <t>この情報から、各PDOエントリのバイトオフセットを計算します。エントリは順番にメモリにマッピングされるので、次のようになります：</t>
+  </si>
+  <si>
+    <t>1. `Target Position` (Index: 0x607A) - 32ビット（4バイト）</t>
+  </si>
+  <si>
+    <t>2. `Digital Outputs` (Index: 0x60FE) - 32ビット（4バイト）</t>
+  </si>
+  <si>
+    <t>3. `Control word` (Index: 0x6040) - 16ビット（2バイト）</t>
+  </si>
+  <si>
+    <t>これを基に、バイトオフセットを計算すると：</t>
+  </si>
+  <si>
+    <t>- `Target Position` は `ec_slave[SLAVE_NO].outputs[0]` から `ec_slave[SLAVE_NO].outputs[3]` に対応</t>
+  </si>
+  <si>
+    <t>- `Digital Outputs` は `ec_slave[SLAVE_NO].outputs[4]` から `ec_slave[SLAVE_NO].outputs[7]` に対応</t>
+  </si>
+  <si>
+    <t>- `Control word` は `ec_slave[SLAVE_NO].outputs[8]` から `ec_slave[SLAVE_NO].outputs[9]` に対応</t>
+  </si>
+  <si>
+    <t>### 2. ステータスワードの確認</t>
+  </si>
+  <si>
+    <t>ステータスワードも同様に確認できます。XMLのPDOマッピングで、ステータスワードが `0x6041` にマッピングされていると仮定すると、次のようにオフセットを計算します。</t>
+  </si>
+  <si>
+    <t>&lt;TxPdo Fixed="1" Sm="3"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Index&gt;#x1A00&lt;/Index&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Name&gt;Inputs&lt;/Name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Index&gt;#x6041&lt;/Index&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Name&gt;Status word&lt;/Name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Index&gt;#x6064&lt;/Index&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Name&gt;Position actual value&lt;/Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/TxPdo&gt;</t>
+  </si>
+  <si>
+    <t>ステータスワード (0x6041) は `16ビット`（2バイト）で、`Position actual value` は `32ビット`（4バイト）です。</t>
+  </si>
+  <si>
+    <t>- `Status word` は `ec_slave[SLAVE_NO].inputs[0]` から `ec_slave[SLAVE_NO].inputs[1]` に対応</t>
+  </si>
+  <si>
+    <t>- `Position actual value` は `ec_slave[SLAVE_NO].inputs[2]` から `ec_slave[SLAVE_NO].inputs[5]` に対応</t>
+  </si>
+  <si>
+    <t>### 3. プログラム例</t>
+  </si>
+  <si>
+    <t>ターゲット位置、制御ワード、およびステータスワードを設定および確認するためのプログラム例を示します。</t>
+  </si>
+  <si>
+    <t>```c</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;</t>
+  </si>
+  <si>
+    <t>#include "ethercat.h"</t>
+  </si>
+  <si>
+    <t>#define EC_TIMEOUTMON 500</t>
+  </si>
+  <si>
+    <t>char IOmap[4096];</t>
+  </si>
+  <si>
+    <t>OSAL_THREAD_HANDLE thread1;</t>
+  </si>
+  <si>
+    <t>int expectedWKC;</t>
+  </si>
+  <si>
+    <t>volatile int wkc;</t>
+  </si>
+  <si>
+    <t>boolean inOP;</t>
+  </si>
+  <si>
+    <t>uint8 currentgroup = 0;</t>
+  </si>
+  <si>
+    <t>// スレーブの番号を定義します（例えば、1番目のスレーブ）</t>
+  </si>
+  <si>
+    <t>#define SLAVE_NO 1</t>
+  </si>
+  <si>
+    <t>int main(int argc, char *argv[])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (argc &gt; 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /* initialise SOEM, bind socket to ifname */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (ec_init(argv[1]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            printf("ec_init on %s succeeded.\n", argv[1]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /* find and auto-config slaves */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (ec_config_init(FALSE) &gt; 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                printf("%d slaves found and configured.\n", ec_slavecount);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ec_config_map(&amp;IOmap);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ec_configdc();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                printf("Slaves mapped, state to SAFE_OP.\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                /* wait for all slaves to reach SAFE_OP state */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ec_statecheck(0, EC_STATE_SAFE_OP, EC_TIMEOUTSTATE * 4);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                /* configure DC options for every DC capable slave found in the list */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ec_dcsync0(SLAVE_NO, TRUE, 1000000, 0);  // SYNC0 activated for this slave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                printf("Request operational state for all slaves\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ec_slave[0].state = EC_STATE_OPERATIONAL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                /* send one valid process data to make outputs in slaves happy*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ec_send_processdata();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ec_receive_processdata(EC_TIMEOUTRET);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                /* request OP state for all slaves */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ec_writestate(0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                int chk = 40;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                /* wait for all slaves to reach OP state */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ec_send_processdata();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ec_receive_processdata(EC_TIMEOUTRET);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ec_statecheck(0, EC_STATE_OPERATIONAL, 50000);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                } while (chk-- &amp;&amp; (ec_slave[0].state != EC_STATE_OPERATIONAL));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (ec_slave[0].state == EC_STATE_OPERATIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    printf("Operational state reached for all slaves.\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    inOP = TRUE;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    // ターゲット位置を設定する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    int target_position = 1000; // 例として、1000を設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    int *target_position_ptr = (int*) &amp;ec_slave[SLAVE_NO].outputs[0];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    *target_position_ptr = target_position;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    // 制御ワードを設定する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    uint16_t control_word = 0x000F; // 例として、0x000Fを設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    uint16_t *control_word_ptr = (uint16_t*) &amp;ec_slave[SLAVE_NO].outputs[8];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    *control_word_ptr = control_word;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    while (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ec_send_processdata();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        wkc = ec_receive_processdata(EC_TIMEOUTRET);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        if (wkc &gt;= expectedWKC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            // ステータスワードの読み取り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            uint16_t status_word = *((uint16_t*)&amp;ec_slave[SLAVE_NO].inputs[0]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            printf("Status word: 0x%04x\n", status_word);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            // 必要に応じて他の処理を行う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        osal_usleep(5000);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    printf("Not all slaves reached operational state.\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ec_readstate();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    for (int i = 1; i &lt;= ec_slavecount; i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        if (ec_slave[i].state != EC_STATE_OPERATIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            printf("Slave %d State=%2x StatusCode=%4x : %s\n",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   i, ec_slave[i].state, ec_slave[i].ALstatuscode,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   ec_ALstatuscode2string(ec_slave[i].ALstatuscode));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                printf("No slaves found!\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            printf("End simple test, close socket\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /* stop SOEM, close socket */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ec_close();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            printf("No socket connection on %s\nExcecute as root\n", argv[1]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        printf("Usage: simple_test ifname\nifname = eth0 for example\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return (0);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>このプログラムでは、ターゲット位置（`Target Position`）と制御ワード（`Control word`）を設定し、ステータスワード（`Status word`）を読み取ることができます。</t>
+  </si>
+  <si>
+    <t>### 注意点</t>
   </si>
 </sst>
 </file>
@@ -3280,8 +3690,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15845330" y="1671108"/>
-          <a:ext cx="4741744" cy="8269183"/>
+          <a:off x="16210455" y="1714765"/>
+          <a:ext cx="4852869" cy="8660766"/>
           <a:chOff x="13375990" y="1611966"/>
           <a:chExt cx="3586017" cy="6363260"/>
         </a:xfrm>
@@ -3519,8 +3929,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22871829" y="3858558"/>
-          <a:ext cx="4659779" cy="5272307"/>
+          <a:off x="23411579" y="4008048"/>
+          <a:ext cx="4755029" cy="5515724"/>
           <a:chOff x="17996647" y="7328646"/>
           <a:chExt cx="4728883" cy="5451290"/>
         </a:xfrm>
@@ -8569,15 +8979,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A157235F-C0E6-4FA7-8DBB-1FC7DDB4252F}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.19921875" customWidth="1"/>
-    <col min="4" max="4" width="62.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.25" customWidth="1"/>
+    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9282,6 +9692,90 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E4ED5A-5845-47B5-A66F-8C14626F522B}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="56.25">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="56.25">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="75">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="56.25">
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="150">
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="150">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="131.25">
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="131.25">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ECFDB5-B23E-48E8-916E-A893B958777A}">
   <dimension ref="B2:C4"/>
   <sheetViews>
@@ -9289,13 +9783,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="36">
+    <row r="2" spans="2:3" ht="37.5">
       <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
@@ -9303,7 +9797,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="180">
+    <row r="3" spans="2:3" ht="187.5">
       <c r="B3" s="2" t="s">
         <v>136</v>
       </c>
@@ -9311,7 +9805,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="198">
+    <row r="4" spans="2:3" ht="206.25">
       <c r="B4" t="s">
         <v>142</v>
       </c>
@@ -9327,6 +9821,904 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AA91D5-98E2-44D2-84F5-466604125693}">
+  <dimension ref="B2:B207"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="e">
+        <f>- PDOマッピング情報はスレーブデバイスごとに異なるため,EDS/XMLファイルを参照して正確なオフセットを確認することが重要です。</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="e">
+        <f>- スレーブの設定や使用する通信インターフェースに応じて,コードの詳細を調整する必要があります。</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0873CCB-75CC-4523-A819-DEDC858B1EFC}">
   <dimension ref="B2:Y10"/>
   <sheetViews>
@@ -9334,9 +10726,9 @@
       <selection activeCell="AB60" sqref="AB60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:25" ht="26.4">
+    <row r="2" spans="2:25" ht="25.5">
       <c r="B2" t="s">
         <v>354</v>
       </c>
@@ -9374,7 +10766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2DD4C-9E2E-4400-854C-D0DC032ADFAB}">
   <dimension ref="A2:B132"/>
   <sheetViews>
@@ -9382,10 +10774,10 @@
       <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="106.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="106.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -10442,7 +11834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF320B72-E784-4BD9-B6FA-6C11632C55CE}">
   <dimension ref="B2:C2"/>
   <sheetViews>
@@ -10450,12 +11842,12 @@
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="133.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="133.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="90">
+    <row r="2" spans="2:3" ht="93.75">
       <c r="B2" t="s">
         <v>122</v>
       </c>
@@ -10471,7 +11863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222A0985-0609-4093-A2DE-8ED93F888291}">
   <dimension ref="B2:C2"/>
   <sheetViews>
@@ -10479,10 +11871,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="49.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1"/>
+    <col min="2" max="2" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -10499,7 +11891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00474366-12FE-409C-9174-7249A075F088}">
   <dimension ref="B2:F81"/>
   <sheetViews>
@@ -10507,13 +11899,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.8984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="22.2">
+    <row r="2" spans="2:4" ht="22.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10550,12 +11942,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="22.2">
+    <row r="8" spans="2:4" ht="22.5">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.8">
+    <row r="9" spans="2:4" ht="19.5">
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
@@ -10600,7 +11992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="19.8">
+    <row r="16" spans="2:4" ht="19.5">
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
@@ -11361,7 +12753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6BB0FB-1275-4730-BD34-CE6244704E27}">
   <dimension ref="B2:D55"/>
   <sheetViews>
@@ -11369,9 +12761,9 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="79.19921875" customWidth="1"/>
+    <col min="2" max="2" width="79.25" customWidth="1"/>
     <col min="4" max="4" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11600,7 +12992,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="43.8">
+    <row r="44" spans="2:4" ht="43.5">
       <c r="B44" t="s">
         <v>118</v>
       </c>
@@ -11611,7 +13003,7 @@
     <row r="45" spans="2:4">
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="2:4" ht="43.2">
+    <row r="46" spans="2:4" ht="42.75">
       <c r="B46" t="s">
         <v>119</v>
       </c>
@@ -11622,7 +13014,7 @@
     <row r="47" spans="2:4">
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="2:4" ht="28.8">
+    <row r="48" spans="2:4" ht="28.5">
       <c r="B48" t="s">
         <v>120</v>
       </c>
@@ -11633,7 +13025,7 @@
     <row r="49" spans="2:4">
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="2:4" ht="43.2">
+    <row r="50" spans="2:4" ht="42.75">
       <c r="B50" t="s">
         <v>121</v>
       </c>
@@ -11655,7 +13047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3098AE-12DD-4AD9-ADFA-1C75AA4467C1}">
   <dimension ref="B2:C6"/>
   <sheetViews>
@@ -11663,13 +13055,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="114" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="180">
+    <row r="2" spans="2:3" ht="187.5">
       <c r="B2" s="2" t="s">
         <v>129</v>
       </c>
@@ -11677,7 +13069,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="36">
+    <row r="3" spans="2:3" ht="37.5">
       <c r="B3" t="s">
         <v>131</v>
       </c>
@@ -11685,7 +13077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="54">
+    <row r="4" spans="2:3" ht="56.25">
       <c r="B4" t="s">
         <v>133</v>
       </c>
@@ -11693,7 +13085,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="36">
+    <row r="5" spans="2:3" ht="37.5">
       <c r="B5" t="s">
         <v>144</v>
       </c>
@@ -11701,96 +13093,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="90">
+    <row r="6" spans="2:3" ht="93.75">
       <c r="B6" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E4ED5A-5845-47B5-A66F-8C14626F522B}">
-  <dimension ref="B2:C9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="33.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="54">
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="54">
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="72">
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="54">
-      <c r="B5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="144">
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="126">
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="126">
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="126">
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
